--- a/NY_TIMES_ARTICLES.xlsx
+++ b/NY_TIMES_ARTICLES.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Golf’s Big Deal Veers Off Course</t>
+          <t>The Landline’s Not Dead (at Least at the Masters)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>The Masters tournament should be all about sport, but the unresolved fight between the PGA Tour and LIV Golf looms over the competition.</t>
+          <t>Augusta National Golf Club has long forbidden cellphones for almost anyone at its hallowed tournament, but patrons delight in making free calls the old-school way.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -477,199 +477,199 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>downloaded_images/DB13-golf-jhfq-threeByTwoSmallAt2X.jpg</t>
+          <t>downloaded_images/nat-atc-masters-phone-promo-threeByTwoSmallAt2X.jpg</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Taylor Swift’s Music Returns to TikTok Ahead of New Album</t>
+          <t>Bernhard Langer, a Masters Stalwart for 40 Years, Sits This One Out</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Songs by the pop singer reappeared on TikTok despite the platform’s ongoing licensing dispute with Universal Music Group, which releases Swift’s music.</t>
+          <t>He first played in the tournament in 1982 and has won it twice, but a pickleball injury, of all things, has him sidelined.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>April 11</t>
+          <t>April 10</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>downloaded_images/11taylor-tiktok-wmbc-threeByTwoSmallAt2X.jpg</t>
+          <t>downloaded_images/11sp-masters-langer-01-cjfz-threeByTwoSmallAt2X.jpg</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Richard Lyons, Former Business School Dean, Will Be U.C. Berkeley’s New Chancellor</t>
+          <t>The Five Players to Watch at the Masters</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The appointment comes as Berkeley and college campuses across the country are facing turmoil over free speech, racial and political diversity, and affordability.</t>
+          <t>Among them are golfers who have won the event before and have a good chance to do it again.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>April 11</t>
+          <t>April 10</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>downloaded_images/11californiatoday-ucb-threeByTwoSmallAt2X.jpg</t>
+          <t>downloaded_images/11sp-masters-five-inyt-01-bpfw-threeByTwoSmallAt2X.jpg</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>36 Hours in Toronto</t>
+          <t>At the Masters, Champions Past, Present and Future</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Savor the diversity of this lakefront city though its hidden bars, small-but-fascinating museums and restaurants with dishes like jerk chicken chow mein and Hong Kong-style French toast.</t>
+          <t>Golf enthusiasts regard a trip to the Masters Tournament as the stuff of dreams. Here are photos from this year’s tournament.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>April 11</t>
+          <t>April 14</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>downloaded_images/things-to-do-toronto-01-hwlf-threeByTwoSmallAt2X.jpg</t>
+          <t>downloaded_images/14nat-masters-photo-doug-top-jpwt-threeByTwoSmallAt2X.jpg</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>J. Cole Apologizes for Kendrick Lamar Diss Track</t>
+          <t>$17,000 to Watch the Masters? How Sports Entice Deep-Pocketed Fans.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>J. Cole also vowed to update the track, “7 Minute Drill,” or remove it from streaming services after it was featured on his new album, “Might Delete Later.”</t>
+          <t>Teams, leagues and event organizers are pursuing enthusiasts with the promise of luxury and exclusivity, in hopes of bigger profits and lasting loyalty.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>April 8</t>
+          <t>April 13</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>downloaded_images/08xp-jcole-threeByTwoSmallAt2X.jpg</t>
+          <t>downloaded_images/12Sports-Luxury-tvqh-threeByTwoSmallAt2X.jpg</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Popcast (Deluxe): Listening to Beyoncé &amp; Future (and the Discourse)</t>
+          <t>Playing the Masters Is by Invitation Only. Here’s How Golfers Get One.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>How conversation about very specific aspects of the new albums “Cowboy Carter” and “We Don’t Trust You” can obscure talk of their musical quality.</t>
+          <t>There’s a long list of possible ways, like being a past winner, but the creation of LIV Golf has complicated the process.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>April 3</t>
+          <t>April 10</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>downloaded_images/03popcast-deluxe-threeByTwoSmallAt2X.jpg</t>
+          <t>downloaded_images/11sp-masters-invite-inyt-01-jqkp-threeByTwoSmallAt2X.jpg</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>For Disney, Small Shareholders Loom Large in Boardroom Fight</t>
+          <t>The Most Famous Golfer at the Masters Is Black. Why Aren’t There More Players Like Him?</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Individuals hold as much as 40 percent of the company’s shares, and they may decide a proxy battle that is one of the most expensive in history.</t>
+          <t>Tiger Woods said he owes his career to Charlie Sifford, the first Black member of the P.G.A. But the golf world has done far too little to promote Black players.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>March 30</t>
+          <t>April 14</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>downloaded_images/00Disney-lktp-threeByTwoSmallAt2X.jpg</t>
+          <t>downloaded_images/14may-gjkt-threeByTwoSmallAt2X.jpg</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>The Eclipse Was So Nice, They’re Doing It Twice</t>
+          <t>Lost Tapes From Major Musicians Are Out There. These Guys Find Them.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>The rendezvous between the sun and the moon in 2017 captivated a small region in the Midwest. Lucky for Americans at the eclipse crossroads, they get to see it again.</t>
+          <t>For decades, recordings left at studios have languished in storage rooms and basements. Master Tape Rescue, a company of two industry vets, is coming to save them.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>March 30</t>
+          <t>April 11</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -680,535 +680,35 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>downloaded_images/00sci-eclipse-crossroads-01-kqwb-threeByTwoSmallAt2X.jpg</t>
+          <t>downloaded_images/14TAPE-RESCUE-02-bgqp-threeByTwoSmallAt2X.jpg</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Metro Boomin Is Headed to No. 1 (Again). Here’s a Guide to His Music.</t>
+          <t>To Choose the Menu, Just Win the Masters</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>The producer has helped shape rap for the past decade, providing moody beats for Atlanta’s biggest stars and beyond. His latest LP, with Future, arrived last week.</t>
+          <t>The winner of the most hallowed event in professional golf gets to design the menu (and pay) for the next year’s champions dinner. Jon Rahm, the 2023 winner, supplied a recipe from his grandmother.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>March 28</t>
+          <t>April 9</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>downloaded_images/28BOOMIN-LIST-threeByTwoSmallAt2X.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Nickelodeon and Disney Stars Find a Second Act on Podcasts</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>The cast of the Nickelodeon series “Ned’s Declassified School Survival Guide” are among the stars of 2000s teen sitcoms who are using podcasts to connect with their Gen Z and millennial fan bases.</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>March 27</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>downloaded_images/00xp-podcasts1-jfpt-threeByTwoSmallAt2X.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Vessels Belonging to Owner of Baltimore Ship Had Been Cited for Labor Violations</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>The vessels had underpaid crews and kept workers onboard for months beyond their contracts, according to an Australian regulator.</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>March 26</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>downloaded_images/26baltimore-bridge-deficiencies-top-tkhg-threeByTwoSmallAt2X.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>More Teams in March Madness? Say Goodbye to the Cinderella Stories.</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Expanding the men’s tournament could push small schools like Oakland, which upset Kentucky this week, out of the action.</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>March 22</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>downloaded_images/22nat-ncaa-expansion-upsets-01-mthc-threeByTwoSmallAt2X.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>No Sympathy for Nickelodeon</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>While Dan Schneider bears responsibility for what he created, Nickelodeon did entrust him to engineer the DNA of its programs.</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>March 22</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>downloaded_images/22Blog-nickelodeon-threeByTwoSmallAt2X-v4.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>‘Quiet on Set: The Dark Side of Kids TV’: 6 Takeaways</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>The Investigation Discovery documentary takes a look at accounts of a problematic working environment at Nickelodeon.</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>March 20</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>downloaded_images/20-quietonset-takeaways-gzjl-threeByTwoSmallAt2X.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>University of California Could Bar Political Speech on Some Web Pages</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>With anger rising over pro-Palestinian protests, the university’s regents are set to vote on a proposal that would draw tighter boundaries around speech.</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>March 20</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>downloaded_images/20nat-ucalifornia-03-ljwf-threeByTwoSmallAt2X.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Dan Schneider Says He Is Sorry for the Pain He Caused His TV Staff</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>In an online apology, the former Nickelodeon producer addressed the many accounts of inappropriate behavior related by actors and others during a recent docuseries, “Quiet on Set.”</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>March 19</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>downloaded_images/19schneider-threeByTwoSmallAt2X.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Ariana Grande’s ‘Eternal Sunshine’ Is the Biggest Album of 2024 Yet</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>The pop singer’s sixth No. 1 album opens at the top with the equivalent of 227,000 sales in the United States.</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>March 18</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>downloaded_images/18billboard-threeByTwoSmallAt2X.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Morgan Wallen, With Latest No. 1, Tops a Garth Brooks Record</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Wallen’s “One Thing at a Time” notches its 19th week atop the all-genre Billboard 200 chart a year after its release.</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>March 11</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>downloaded_images/11billboard-zbhk-threeByTwoSmallAt2X.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Some on the red carpet plan to wear red pins in support of a cease-fire in Gaza.</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>March 10</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>downloaded_images/10OSCARS-CEASEFIRE-PINS3-jpvc-threeByTwoSmallAt2X.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Julia Roberts, Ice Spice, Robert De Niro and More Party Before the Oscars Even Start</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Stars descend on the scene, and the biggest fashion brands in the world get into the action with as many events as people can possibly attend in one short weekend.</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>March 10</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>downloaded_images/10OSCARS-PARTIES-body-09-mhjq-threeByTwoSmallAt2X.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>On Oscars Carpet, Red Pins Worn to Call for Cease-Fire in Gaza</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Billie Eilish, Mark Ruffalo, Ava DuVernay and others wore the bright red circles designed and distributed by Artists4Ceasefire.</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>March 10</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>downloaded_images/10OSCARS-CEASEFIRE-PINS-ckfg-hqtz-threeByTwoSmallAt2X-v3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Kamasi Washington’s Ecstatic Return, and 9 More New Songs</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Hear tracks by 4batz featuring Drake, Salt Cathedral, Swamp Dogg and others.</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>March 8</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>downloaded_images/08playlist-threeByTwoSmallAt2X.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Steve Lawrence, 88, Who Sang His Listeners Down Memory Lane, Dies</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>With his wife, Eydie Gorme, and sometimes on his own, he kept pop standards in vogue long past their prime. He also acted on television and on Broadway.</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>March 7</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>downloaded_images/07Lawrwence1-zbvl-threeByTwoSmallAt2X.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Drake Bell Will Detail Abuse He Suffered as a Child Star</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>The former Nickelodeon actor is set to describe sexual abuse he experienced at the hands of a former dialogue coach, according to a new docuseries. Court documents detail the back story.</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>March 6</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>downloaded_images/06DrakeBell-abuse-threeByTwoSmallAt2X.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>The Supreme Court Ruled That States Cannot Bar Trump From Ballots</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Also, Apple was fined $2 billion for thwarting competition. Here’s the latest at the end of Monday.</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>March 4</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="b">
-        <v>1</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>downloaded_images/04evening-nl-trump1-threeByTwoSmallAt2X.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>LeBron James and Drake Make a Big Bet on the PGA Tour</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>The basketball star and rapper are investing in the professional golf competition, marking their latest push into sports.</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>March 4</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="b">
-        <v>0</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>downloaded_images/04dealbook-lebron-drake-threeByTwoSmallAt2X.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Two Lives Intertwined, on Both Sides of the Camera</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>In “Double Click,” the writer Carol Kino explores the pioneering glamour of a famous fashion-photography pair.</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>March 2</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>downloaded_images/05Kino-Review-hvgc-threeByTwoSmallAt2X.jpg</t>
+          <t>downloaded_images/09nat-masters-dinner-threeByTwoSmallAt2X-v3.jpg</t>
         </is>
       </c>
     </row>
